--- a/biology/Botanique/Fibre/Fibre.xlsx
+++ b/biology/Botanique/Fibre/Fibre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une fibre est une formation élémentaire, végétale ou animale, d’aspect filamenteux, se présentant généralement sous forme de faisceaux. On emploie également ce terme par extension pour désigner certains matériaux minéraux ou synthétiques ayant le même aspect.
 </t>
@@ -511,9 +523,11 @@
           <t>Typologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fibre naturelle (liste) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fibre naturelle (liste) :
 Fibre d'origine animale
 Fibre d'origine végétale
 Fibre "chimique", fabriquée par l'homme
@@ -526,9 +540,47 @@
 L'Homme, par l'intermédiaire des industries, fabrique de nombreuses variétés de fibres synthétiques, semi-synthétiques, ou à partir d'éléments naturels, mais ne possédant pas ces formes (nylon, fibre optique).
 Les fibres peuvent être classées selon leur origine, leur longueur, leur consistance ou même selon leur utilisation.
 En général on distingue deux grandes familles : les fibres naturelles et les fibres dites « chimiques » mais l'expression anglaise man-made fibers (fibres faites par l'homme) conviendrait mieux car toutes les fibres ont une composition chimique. Ainsi le coton est composé de cellulose exactement comme la viscose fabriquée par l'homme.
-Fibres naturelles
-Fibres d'origine végétale (cellulosiques)
-Fibres principales
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Fibre</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fibre</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fibres naturelles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Fibres d'origine végétale (cellulosiques)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fibres principales
 Coton
 Lin cultivé
 Chanvre
@@ -545,9 +597,47 @@
 Maguey
 Paille
 Sisal
-Bambou
-Fibres d'origine animale (protéiques)
-Laine
+Bambou</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fibre</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fibre</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fibres naturelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Fibres d'origine animale (protéiques)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Laine
 Alpaga
 Chameau
 Cachemire
@@ -558,9 +648,47 @@
 Yack
 Soie
 Biologie
-Fibre de projection, ensemble d'axones dans le cerveau humain.
-Fibres d'origine minérale (silicatées) ou métalliques
-[1]Verre
+Fibre de projection, ensemble d'axones dans le cerveau humain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fibre</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fibre</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fibres naturelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Fibres d'origine minérale (silicatées) ou métalliques</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Verre
 Amiante
 Basalte
 Carbone
@@ -568,18 +696,54 @@
 Argent/Or
 Cuivre
 Aluminium
-Tourbe
-Fibres "chimiques" (man-made fibers)
-Fibres artificielles
-Fibres artificielles d'origine végétale
+Tourbe</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fibre</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fibre</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fibres "chimiques" (man-made fibers)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Fibres artificielles</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Fibres artificielles d'origine végétale
 Cellulosiques
 Viscose, Cupro, Modal, Lyocell, Seacell, Lenpur
 Acétate de cellulose, diacétate de cellulose, triacétate de cellulose
 Non cellulosiques
 Alginate, fibre de maïs, fibre de lait
 Fibres artificielles d'origine animale
-Chitine (carapaces de crustacés)
-Fibres synthétiques</t>
+Chitine (carapaces de crustacés)</t>
         </is>
       </c>
     </row>
